--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AF0EE-2DFA-4600-BBC9-56DC63E60ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563F62E-A401-4A04-82C7-84D3F8F3CF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="6150" windowWidth="15750" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
     <sheet name="CAR_Dem" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -117,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>

--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.22\VedaOnlineWebsiteModels\rahul\Demo_S012_Vonline\etsapdemo~~a78eda02-040c-4bc7-a3bb-ec2028ae56bf~~100521_221317\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563F62E-A401-4A04-82C7-84D3F8F3CF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CF619-85E6-423B-B57C-86DD882124E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="6150" windowWidth="15750" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
